--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,31 +22,49 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009263</t>
+  </si>
+  <si>
     <t>010841</t>
   </si>
   <si>
-    <t>009263</t>
+    <t>华宝红利精选混合A</t>
   </si>
   <si>
     <t>华宝红利精选混合C</t>
   </si>
   <si>
-    <t>华宝红利精选混合A</t>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
   <si>
     <t>93.11</t>
   </si>
   <si>
     <t>1.06</t>
+  </si>
+  <si>
+    <t>0.0123</t>
+  </si>
+  <si>
+    <t>0.0001</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009263</t>
-  </si>
-  <si>
-    <t>010841</t>
-  </si>
-  <si>
-    <t>华宝红利精选混合A</t>
-  </si>
-  <si>
-    <t>华宝红利精选混合C</t>
-  </si>
-  <si>
-    <t>1.16</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>93.11</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>0.0123</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7214</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.02</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,3001 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3468</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4111,7 +4112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4122,17 +4123,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4142,14 +4163,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>78</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.11</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4158,14 +4201,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.02</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4174,13 +4239,1503 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0808</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>45.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.43</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6797</t>
+          <t>2.4937</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>270006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>广发策略优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.55</t>
+          <t>43.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>89.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8552</t>
+          <t>1.8615</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -723,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7347</t>
+          <t>1.0808</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>159865</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>国泰中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>36.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.26</t>
+          <t>99.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7214</t>
+          <t>0.9828</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5331</t>
+          <t>0.6735</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -827,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>013532</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>广发安宏回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>19.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.02</t>
+          <t>81.46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1779</t>
+          <t>0.6646</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -865,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>001761</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>广发安宏回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>19.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>81.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0862</t>
+          <t>0.6646</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -903,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>21.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.27</t>
+          <t>62.47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0836</t>
+          <t>0.4754</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -941,36 +909,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>88.95</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.3080</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -979,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001536</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方君选灵活配置混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>62.56</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0372</t>
+          <t>0.2390</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1017,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>010418</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>财通景气行业一年封闭运作混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0210</t>
+          <t>0.2279</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1055,35 +1023,1061 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>005959</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4112,7 +5106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4173,26 +5167,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>45.84</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>74.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4937</t>
+          <t>1.6797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4201,36 +5195,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270006</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发策略优选混合</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.09</t>
+          <t>15.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8615</t>
+          <t>0.8552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4249,26 +5243,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0808</t>
+          <t>0.7347</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4277,36 +5271,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159865</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证畜牧养殖ETF</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.40</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.72</t>
+          <t>79.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9828</t>
+          <t>0.7214</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4315,36 +5309,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6735</t>
+          <t>0.5331</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4353,36 +5347,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013532</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发安宏回报灵活配置混合E</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19.32</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>78.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6646</t>
+          <t>0.1779</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -4391,36 +5385,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001761</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发安宏回报灵活配置混合A</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.32</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6646</t>
+          <t>0.0862</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -4429,36 +5423,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>62.47</t>
+          <t>83.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4754</t>
+          <t>0.0836</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -4467,36 +5461,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.95</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3080</t>
+          <t>0.0815</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -4505,36 +5499,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>001536</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>南方君选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>62.56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2390</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4543,36 +5537,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010418</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通景气行业一年封闭运作混合</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2279</t>
+          <t>0.0210</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4581,1061 +5575,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2028</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1799</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159867</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1642</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.95</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1434</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011111</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001398</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰柏瑞健康生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0995</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>516670</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0871</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>516760</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>平安中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>98.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>015271</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.80</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0467</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>78.91</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>000845</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0289</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009619</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>78.94</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011389</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国都聚成混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>84.42</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0239</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>350009</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>014064</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>银华农业产业股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001762</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发安宏回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>81.46</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006882</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华泰保兴健康消费混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>63.11</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006883</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华泰保兴健康消费混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>63.11</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>011112</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>78.91</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002043</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>天治研究驱动混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>009620</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>78.94</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5650,96 +5618,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.17</v>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>11.17</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>16.11</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>5.02</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -549,6 +566,1462 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华农业产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2086,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5100,7 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5612,7 +7085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
+++ b/数据整理/stocks/A股/深证主板/002567-唐人神.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>11.17</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>16.11</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D5" t="n">
-        <v>5.02</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>017679</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2021,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3559,7 +4122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6573,7 +7136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7085,7 +7648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
